--- a/biology/Médecine/Capnographie/Capnographie.xlsx
+++ b/biology/Médecine/Capnographie/Capnographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La capnographie est le tracé de la concentration de CO2 dans l'air expiré par un patient.
 </t>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Confirmation du positionnement d'un tube endotrachéal
-La présence de CO2 dans l'air expiré sur plusieurs respirations par un patient venant d'être intubé est une preuve fiable de la présence du tube endotrachéal dans la trachée.
-Surveillance de la respiration d'un patient intubé ou non
-Surveillance du débit cardiaque
-Prédiction de la survie lors d'une réanimation</t>
+          <t>Confirmation du positionnement d'un tube endotrachéal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence de CO2 dans l'air expiré sur plusieurs respirations par un patient venant d'être intubé est une preuve fiable de la présence du tube endotrachéal dans la trachée.
+</t>
         </is>
       </c>
     </row>
@@ -545,7 +560,9 @@
           <t>Capnographie normale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une courbe de capnographie normale augmente rapidement en début d'expiration pour atteindre un plateau à environ 40 mmHg de CO2. Au début de l'inspiration, le niveau de CO2 chute rapidement à 0 mmHg puisque l'inspiration fait passer du gaz frais dans le capteur.
 </t>
